--- a/data/pca/factorExposure/factorExposure_2017-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01999962789742718</v>
+        <v>0.01026722177539343</v>
       </c>
       <c r="C2">
-        <v>-0.01269068664616097</v>
+        <v>-0.04175357109243773</v>
       </c>
       <c r="D2">
-        <v>0.03321911212492829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02959542241289697</v>
+      </c>
+      <c r="E2">
+        <v>-0.03680599651145507</v>
+      </c>
+      <c r="F2">
+        <v>0.007370072489228123</v>
+      </c>
+      <c r="G2">
+        <v>0.1014503302577232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02052897858858495</v>
+        <v>0.04156081541630771</v>
       </c>
       <c r="C3">
-        <v>0.01186274289048058</v>
+        <v>-0.1018042250792952</v>
       </c>
       <c r="D3">
-        <v>0.1060448150457384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01767127791132767</v>
+      </c>
+      <c r="E3">
+        <v>-0.1009094400615225</v>
+      </c>
+      <c r="F3">
+        <v>0.002799685712542354</v>
+      </c>
+      <c r="G3">
+        <v>0.1632207261891899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02473272573420183</v>
+        <v>0.05666053856749292</v>
       </c>
       <c r="C4">
-        <v>-0.004076488807250286</v>
+        <v>-0.0678206473575346</v>
       </c>
       <c r="D4">
-        <v>0.08480108554265968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0245193679796539</v>
+      </c>
+      <c r="E4">
+        <v>-0.03306910294845249</v>
+      </c>
+      <c r="F4">
+        <v>0.01130455537912311</v>
+      </c>
+      <c r="G4">
+        <v>0.1007771554905378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01049599895185744</v>
+        <v>0.03691238405935542</v>
       </c>
       <c r="C6">
-        <v>-0.01221846335274894</v>
+        <v>-0.05129875647702641</v>
       </c>
       <c r="D6">
-        <v>0.07744738229589759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01711847244851883</v>
+      </c>
+      <c r="E6">
+        <v>-0.03664297855724187</v>
+      </c>
+      <c r="F6">
+        <v>0.008837997079949467</v>
+      </c>
+      <c r="G6">
+        <v>0.08396323041007051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.006272591688475132</v>
+        <v>0.02105907165065595</v>
       </c>
       <c r="C7">
-        <v>-0.01120356791342482</v>
+        <v>-0.03934063533388822</v>
       </c>
       <c r="D7">
-        <v>0.03350343109696914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01405050310465574</v>
+      </c>
+      <c r="E7">
+        <v>-0.006475574291342758</v>
+      </c>
+      <c r="F7">
+        <v>-0.003888070840515738</v>
+      </c>
+      <c r="G7">
+        <v>0.1226544090109338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001296702985589672</v>
+        <v>0.003916889655766297</v>
       </c>
       <c r="C8">
-        <v>0.0006743137656998391</v>
+        <v>-0.02529464488958085</v>
       </c>
       <c r="D8">
-        <v>-0.0005995468422207442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003812009145596311</v>
+      </c>
+      <c r="E8">
+        <v>-0.02853976177968788</v>
+      </c>
+      <c r="F8">
+        <v>0.00776215079611137</v>
+      </c>
+      <c r="G8">
+        <v>0.06599847367340896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01593541897949361</v>
+        <v>0.03436435692056442</v>
       </c>
       <c r="C9">
-        <v>-0.00223118916456565</v>
+        <v>-0.05029883786214962</v>
       </c>
       <c r="D9">
-        <v>0.06361727435249943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01651864707103733</v>
+      </c>
+      <c r="E9">
+        <v>-0.02304174400127859</v>
+      </c>
+      <c r="F9">
+        <v>0.00699983613022296</v>
+      </c>
+      <c r="G9">
+        <v>0.1006314933485058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1018409038732568</v>
+        <v>0.09867702873831358</v>
       </c>
       <c r="C10">
-        <v>0.1577962036710078</v>
+        <v>0.1829647507701677</v>
       </c>
       <c r="D10">
-        <v>-0.09530728957879034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01556874828106523</v>
+      </c>
+      <c r="E10">
+        <v>-0.01943091948184329</v>
+      </c>
+      <c r="F10">
+        <v>-0.02102384662836649</v>
+      </c>
+      <c r="G10">
+        <v>0.05594866129304329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0003575059699223479</v>
+        <v>0.03445306926514626</v>
       </c>
       <c r="C11">
-        <v>-0.001376873964544524</v>
+        <v>-0.05357193906995203</v>
       </c>
       <c r="D11">
-        <v>0.05333717597666149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002565161632433225</v>
+      </c>
+      <c r="E11">
+        <v>-0.01780380063672556</v>
+      </c>
+      <c r="F11">
+        <v>0.02013630791670663</v>
+      </c>
+      <c r="G11">
+        <v>0.09152998367885315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004196880299550473</v>
+        <v>0.03595796848275008</v>
       </c>
       <c r="C12">
-        <v>-0.004020549417990638</v>
+        <v>-0.04870067805414574</v>
       </c>
       <c r="D12">
-        <v>0.04610934342336574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006612298434535446</v>
+      </c>
+      <c r="E12">
+        <v>-0.009431333586391737</v>
+      </c>
+      <c r="F12">
+        <v>0.0015761662389622</v>
+      </c>
+      <c r="G12">
+        <v>0.08289823900615576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02299221185902488</v>
+        <v>0.01570237315584886</v>
       </c>
       <c r="C13">
-        <v>-0.004122923027184284</v>
+        <v>-0.04178513084913803</v>
       </c>
       <c r="D13">
-        <v>0.03780254567825089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02659129438770259</v>
+      </c>
+      <c r="E13">
+        <v>-0.03717251811183261</v>
+      </c>
+      <c r="F13">
+        <v>0.006598406475162205</v>
+      </c>
+      <c r="G13">
+        <v>0.1393199992996015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007049453408726192</v>
+        <v>0.008469058533994657</v>
       </c>
       <c r="C14">
-        <v>-0.002140602827763947</v>
+        <v>-0.02918009168619819</v>
       </c>
       <c r="D14">
-        <v>0.01879152037592885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01029445944878499</v>
+      </c>
+      <c r="E14">
+        <v>-0.00720582735552917</v>
+      </c>
+      <c r="F14">
+        <v>-0.007326984730412196</v>
+      </c>
+      <c r="G14">
+        <v>0.1065073414759639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00271371305382055</v>
+        <v>0.03299653698437047</v>
       </c>
       <c r="C16">
-        <v>0.002527349439841124</v>
+        <v>-0.04669953416451614</v>
       </c>
       <c r="D16">
-        <v>0.04277015320153747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002047955571093502</v>
+      </c>
+      <c r="E16">
+        <v>-0.01553604584227859</v>
+      </c>
+      <c r="F16">
+        <v>0.001867579075283693</v>
+      </c>
+      <c r="G16">
+        <v>0.09334041773871039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01268052078635764</v>
+        <v>0.02288295132994489</v>
       </c>
       <c r="C19">
-        <v>-0.004377061744055505</v>
+        <v>-0.05168459092725516</v>
       </c>
       <c r="D19">
-        <v>0.04067889773994118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01906263394948309</v>
+      </c>
+      <c r="E19">
+        <v>-0.07812132645513326</v>
+      </c>
+      <c r="F19">
+        <v>0.0215002985135128</v>
+      </c>
+      <c r="G19">
+        <v>0.1387700212282664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.007342910594053671</v>
+        <v>0.01547659950602819</v>
       </c>
       <c r="C20">
-        <v>-0.008206937389261227</v>
+        <v>-0.04153212907090768</v>
       </c>
       <c r="D20">
-        <v>0.03598120033978299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01434284694507902</v>
+      </c>
+      <c r="E20">
+        <v>-0.03836444679900194</v>
+      </c>
+      <c r="F20">
+        <v>-0.01099589332380809</v>
+      </c>
+      <c r="G20">
+        <v>0.1111214027419314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01661905550278558</v>
+        <v>0.01256446044048345</v>
       </c>
       <c r="C21">
-        <v>0.001169412867036491</v>
+        <v>-0.03875213062852857</v>
       </c>
       <c r="D21">
-        <v>0.0232831060051004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01925142503000966</v>
+      </c>
+      <c r="E21">
+        <v>-0.05007787013987683</v>
+      </c>
+      <c r="F21">
+        <v>-0.0002728877404720084</v>
+      </c>
+      <c r="G21">
+        <v>0.1386979325119437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001320429480621519</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002037947926347605</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0006256956737989432</v>
+      </c>
+      <c r="E22">
+        <v>-0.003916012074083416</v>
+      </c>
+      <c r="F22">
+        <v>0.002171549989212074</v>
+      </c>
+      <c r="G22">
+        <v>0.005639629124440273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001325966731295888</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002155531849578958</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0006244999180137613</v>
+      </c>
+      <c r="E23">
+        <v>-0.003903213914122627</v>
+      </c>
+      <c r="F23">
+        <v>0.002177091659420019</v>
+      </c>
+      <c r="G23">
+        <v>0.005531880396262817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0004470191957175276</v>
+        <v>0.02839305156873775</v>
       </c>
       <c r="C24">
-        <v>-0.008893755410315419</v>
+        <v>-0.05122270623300534</v>
       </c>
       <c r="D24">
-        <v>0.04591725638171123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007362883298332698</v>
+      </c>
+      <c r="E24">
+        <v>-0.01283390152543201</v>
+      </c>
+      <c r="F24">
+        <v>0.01212204345850044</v>
+      </c>
+      <c r="G24">
+        <v>0.09236968974350761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01480654109323801</v>
+        <v>0.04252501271014402</v>
       </c>
       <c r="C25">
-        <v>0.002727854594902384</v>
+        <v>-0.05846994156963077</v>
       </c>
       <c r="D25">
-        <v>0.05829904950510054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01133686003258795</v>
+      </c>
+      <c r="E25">
+        <v>-0.00439662892462129</v>
+      </c>
+      <c r="F25">
+        <v>0.005928710227262008</v>
+      </c>
+      <c r="G25">
+        <v>0.1003218007016859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02103687475868534</v>
+        <v>0.01393665597088233</v>
       </c>
       <c r="C26">
-        <v>-0.008316973405505095</v>
+        <v>-0.01220468682927249</v>
       </c>
       <c r="D26">
-        <v>0.001793097371206982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02417570886424979</v>
+      </c>
+      <c r="E26">
+        <v>-0.009411719606161589</v>
+      </c>
+      <c r="F26">
+        <v>-0.008703919375877278</v>
+      </c>
+      <c r="G26">
+        <v>0.08418556912877383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1450260101433504</v>
+        <v>0.1248360213096109</v>
       </c>
       <c r="C28">
-        <v>0.1986590424001138</v>
+        <v>0.2393386975954329</v>
       </c>
       <c r="D28">
-        <v>-0.1197292327051941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006505378006183178</v>
+      </c>
+      <c r="E28">
+        <v>-0.008360418511746293</v>
+      </c>
+      <c r="F28">
+        <v>-0.01394274174756076</v>
+      </c>
+      <c r="G28">
+        <v>0.0485738007959591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01105828024674262</v>
+        <v>0.009221187277087496</v>
       </c>
       <c r="C29">
-        <v>0.004275172845266225</v>
+        <v>-0.02311522944317455</v>
       </c>
       <c r="D29">
-        <v>0.01925367055095574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009339756388351198</v>
+      </c>
+      <c r="E29">
+        <v>-0.004558238196776421</v>
+      </c>
+      <c r="F29">
+        <v>-0.01427754867692031</v>
+      </c>
+      <c r="G29">
+        <v>0.09785036221502517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01674495254607032</v>
+        <v>0.04184210036247318</v>
       </c>
       <c r="C30">
-        <v>-0.01859929625419885</v>
+        <v>-0.06990408489206577</v>
       </c>
       <c r="D30">
-        <v>0.09926151425276247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02901873949456102</v>
+      </c>
+      <c r="E30">
+        <v>-0.06046089011104022</v>
+      </c>
+      <c r="F30">
+        <v>0.04612646252604519</v>
+      </c>
+      <c r="G30">
+        <v>0.1317127139168356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02017364613018841</v>
+        <v>0.053433023279996</v>
       </c>
       <c r="C31">
-        <v>0.02041214929816213</v>
+        <v>-0.03745936121416498</v>
       </c>
       <c r="D31">
-        <v>0.03186975122891881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003845211326968375</v>
+      </c>
+      <c r="E31">
+        <v>-0.0004826462605276383</v>
+      </c>
+      <c r="F31">
+        <v>-0.04080845391834301</v>
+      </c>
+      <c r="G31">
+        <v>0.1001657751207696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0004758537633014182</v>
+        <v>0.00303104770851448</v>
       </c>
       <c r="C32">
-        <v>0.0153578499268745</v>
+        <v>-0.02413899790373976</v>
       </c>
       <c r="D32">
-        <v>0.004520293751174989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00290405825629879</v>
+      </c>
+      <c r="E32">
+        <v>-0.03415964971203379</v>
+      </c>
+      <c r="F32">
+        <v>0.04346117691002427</v>
+      </c>
+      <c r="G32">
+        <v>0.08664499257476498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01101184116294491</v>
+        <v>0.02839252621316128</v>
       </c>
       <c r="C33">
-        <v>-0.004111255218054197</v>
+        <v>-0.05023542006715905</v>
       </c>
       <c r="D33">
-        <v>0.04360641132458968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01586597394991518</v>
+      </c>
+      <c r="E33">
+        <v>-0.04422616050601647</v>
+      </c>
+      <c r="F33">
+        <v>0.01568709699294368</v>
+      </c>
+      <c r="G33">
+        <v>0.1633173427498991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.002168021986546653</v>
+        <v>0.03996731225218551</v>
       </c>
       <c r="C34">
-        <v>0.01283595689670871</v>
+        <v>-0.05956616287069989</v>
       </c>
       <c r="D34">
-        <v>0.05665371437453057</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004412390625861802</v>
+      </c>
+      <c r="E34">
+        <v>-0.007852910258228759</v>
+      </c>
+      <c r="F34">
+        <v>0.02076687762287102</v>
+      </c>
+      <c r="G34">
+        <v>0.09499719613989481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01647827963688821</v>
+        <v>0.0163766231074259</v>
       </c>
       <c r="C36">
-        <v>0.005238009084344996</v>
+        <v>-0.009404934510098566</v>
       </c>
       <c r="D36">
-        <v>0.004275420320356852</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01258489371683386</v>
+      </c>
+      <c r="E36">
+        <v>-0.008616863337244179</v>
+      </c>
+      <c r="F36">
+        <v>-0.007268768510441557</v>
+      </c>
+      <c r="G36">
+        <v>0.09259124868996113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.008142190233645831</v>
+        <v>0.0314057337712909</v>
       </c>
       <c r="C38">
-        <v>0.02437290191481432</v>
+        <v>-0.0299928870983463</v>
       </c>
       <c r="D38">
-        <v>0.04193235524777363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007356156882322975</v>
+      </c>
+      <c r="E38">
+        <v>-0.007251771667821114</v>
+      </c>
+      <c r="F38">
+        <v>-0.01795305239700251</v>
+      </c>
+      <c r="G38">
+        <v>0.08729321298059735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006610489307117677</v>
+        <v>0.03655134983283749</v>
       </c>
       <c r="C39">
-        <v>-0.02578968314875617</v>
+        <v>-0.08013097730131609</v>
       </c>
       <c r="D39">
-        <v>0.1001186958071932</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01182342593798344</v>
+      </c>
+      <c r="E39">
+        <v>-0.02951106447673789</v>
+      </c>
+      <c r="F39">
+        <v>0.02329131638715534</v>
+      </c>
+      <c r="G39">
+        <v>0.09053124737468943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01602949405003426</v>
+        <v>0.01387056881186373</v>
       </c>
       <c r="C40">
-        <v>0.004814350843358072</v>
+        <v>-0.04003451496617686</v>
       </c>
       <c r="D40">
-        <v>0.03600876843178705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01492337386523183</v>
+      </c>
+      <c r="E40">
+        <v>-0.03189417079641124</v>
+      </c>
+      <c r="F40">
+        <v>-0.006175201555659877</v>
+      </c>
+      <c r="G40">
+        <v>0.1218515773665945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01373487114955301</v>
+        <v>0.02058359407873327</v>
       </c>
       <c r="C41">
-        <v>0.01448479147957071</v>
+        <v>-0.002388581320573957</v>
       </c>
       <c r="D41">
-        <v>-0.009136842666668933</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004498785004745128</v>
+      </c>
+      <c r="E41">
+        <v>-0.007402698496710024</v>
+      </c>
+      <c r="F41">
+        <v>-0.01517440733373255</v>
+      </c>
+      <c r="G41">
+        <v>0.08661070133237787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.06717398791481224</v>
+        <v>0.01015975754250713</v>
       </c>
       <c r="C42">
-        <v>-0.06871811867902637</v>
+        <v>-0.03548049888587419</v>
       </c>
       <c r="D42">
-        <v>0.1637639360150761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08954097237556487</v>
+      </c>
+      <c r="E42">
+        <v>-0.01951435589358978</v>
+      </c>
+      <c r="F42">
+        <v>-0.04739891298659787</v>
+      </c>
+      <c r="G42">
+        <v>-0.03348920939842975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01456657367991724</v>
+        <v>0.03520874469028362</v>
       </c>
       <c r="C43">
-        <v>0.01419295247329615</v>
+        <v>-0.01833157207962182</v>
       </c>
       <c r="D43">
-        <v>-0.008546157639080138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.00594410086108019</v>
+      </c>
+      <c r="E43">
+        <v>-0.02099634754787426</v>
+      </c>
+      <c r="F43">
+        <v>-0.00751631499368848</v>
+      </c>
+      <c r="G43">
+        <v>0.121043822646017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002105178601111841</v>
+        <v>0.01394241429558996</v>
       </c>
       <c r="C44">
-        <v>-0.002243867839158622</v>
+        <v>-0.05914712882423415</v>
       </c>
       <c r="D44">
-        <v>0.05511773547371657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007057114838242255</v>
+      </c>
+      <c r="E44">
+        <v>-0.02566471374643818</v>
+      </c>
+      <c r="F44">
+        <v>-0.003066971528596508</v>
+      </c>
+      <c r="G44">
+        <v>0.1118470527828234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01085511713034569</v>
+        <v>0.008043921459022059</v>
       </c>
       <c r="C46">
-        <v>-0.001051851644901383</v>
+        <v>-0.01440805041783812</v>
       </c>
       <c r="D46">
-        <v>-0.005252811568491452</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01274967329932508</v>
+      </c>
+      <c r="E46">
+        <v>-0.001579894744385145</v>
+      </c>
+      <c r="F46">
+        <v>-0.0151956215390564</v>
+      </c>
+      <c r="G46">
+        <v>0.1070383965383902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01468385413416954</v>
+        <v>0.07754388223074644</v>
       </c>
       <c r="C47">
-        <v>0.02368877290744426</v>
+        <v>-0.06835708253531306</v>
       </c>
       <c r="D47">
-        <v>0.07364859711174458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004711644037313598</v>
+      </c>
+      <c r="E47">
+        <v>0.005350716441369676</v>
+      </c>
+      <c r="F47">
+        <v>-0.05384674874981372</v>
+      </c>
+      <c r="G47">
+        <v>0.08642910496003242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008807041885939755</v>
+        <v>0.01889930724602747</v>
       </c>
       <c r="C48">
-        <v>0.01054126391642923</v>
+        <v>-0.01280239128405363</v>
       </c>
       <c r="D48">
-        <v>0.01738535765713066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002314815058135653</v>
+      </c>
+      <c r="E48">
+        <v>-0.004854650646433577</v>
+      </c>
+      <c r="F48">
+        <v>-0.01873114256329318</v>
+      </c>
+      <c r="G48">
+        <v>0.0979285022965448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02193650680909438</v>
+        <v>0.07579758949647061</v>
       </c>
       <c r="C50">
-        <v>0.03124645391526946</v>
+        <v>-0.07155901819360332</v>
       </c>
       <c r="D50">
-        <v>0.07078412421610991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002136019792656514</v>
+      </c>
+      <c r="E50">
+        <v>0.002588462273694565</v>
+      </c>
+      <c r="F50">
+        <v>-0.05675400363108692</v>
+      </c>
+      <c r="G50">
+        <v>0.09440510298803874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008250534074730509</v>
+        <v>0.01454298270479778</v>
       </c>
       <c r="C51">
-        <v>0.001601333424463129</v>
+        <v>-0.03633382241449985</v>
       </c>
       <c r="D51">
-        <v>0.01742168260554394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01076397272426778</v>
+      </c>
+      <c r="E51">
+        <v>-0.02588279497261887</v>
+      </c>
+      <c r="F51">
+        <v>0.02533623482922435</v>
+      </c>
+      <c r="G51">
+        <v>0.1228573442194312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.02398487287585966</v>
+        <v>0.08215197473905142</v>
       </c>
       <c r="C53">
-        <v>0.03291112411748252</v>
+        <v>-0.08509442945803154</v>
       </c>
       <c r="D53">
-        <v>0.1290937421082187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003371860670961636</v>
+      </c>
+      <c r="E53">
+        <v>0.02502136243416506</v>
+      </c>
+      <c r="F53">
+        <v>-0.0645862845187171</v>
+      </c>
+      <c r="G53">
+        <v>0.09343380065928861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01230936752604628</v>
+        <v>0.03164990568099875</v>
       </c>
       <c r="C54">
-        <v>0.02323947046083813</v>
+        <v>-0.01904408659658925</v>
       </c>
       <c r="D54">
-        <v>-0.003283344093707724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001225990562690142</v>
+      </c>
+      <c r="E54">
+        <v>-0.01825566986182614</v>
+      </c>
+      <c r="F54">
+        <v>-0.004784010220526486</v>
+      </c>
+      <c r="G54">
+        <v>0.1074164140579946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01330645984482381</v>
+        <v>0.07228440280505528</v>
       </c>
       <c r="C55">
-        <v>0.01939138976558255</v>
+        <v>-0.06847693591725412</v>
       </c>
       <c r="D55">
-        <v>0.1021713977625935</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004898154549624003</v>
+      </c>
+      <c r="E55">
+        <v>0.02265617142554981</v>
+      </c>
+      <c r="F55">
+        <v>-0.06439994598427663</v>
+      </c>
+      <c r="G55">
+        <v>0.07025355637686898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.02505435039214548</v>
+        <v>0.1365074486908162</v>
       </c>
       <c r="C56">
-        <v>0.04092428179320004</v>
+        <v>-0.1072102769315257</v>
       </c>
       <c r="D56">
-        <v>0.1592364645862724</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01235085510548107</v>
+      </c>
+      <c r="E56">
+        <v>0.03262919839700718</v>
+      </c>
+      <c r="F56">
+        <v>-0.08159512111305521</v>
+      </c>
+      <c r="G56">
+        <v>0.04312437987863798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0230366847391241</v>
+        <v>0.005873371477046329</v>
       </c>
       <c r="C57">
-        <v>-0.006359069518701659</v>
+        <v>-0.006785617414300712</v>
       </c>
       <c r="D57">
-        <v>0.03425195421496445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02285270711022955</v>
+      </c>
+      <c r="E57">
+        <v>-0.02510803020398359</v>
+      </c>
+      <c r="F57">
+        <v>0.009149716900274453</v>
+      </c>
+      <c r="G57">
+        <v>0.02370077739825285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01638117328442214</v>
+        <v>0.05369351545109042</v>
       </c>
       <c r="C58">
-        <v>0.01980064512275186</v>
+        <v>-0.04604170750405297</v>
       </c>
       <c r="D58">
-        <v>0.1351969883357793</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0200082496325891</v>
+      </c>
+      <c r="E58">
+        <v>-0.913541221656874</v>
+      </c>
+      <c r="F58">
+        <v>-0.2702103951327441</v>
+      </c>
+      <c r="G58">
+        <v>-0.2267971082987549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.155936063551789</v>
+        <v>0.1599502310113218</v>
       </c>
       <c r="C59">
-        <v>0.2221676579952758</v>
+        <v>0.205375635623389</v>
       </c>
       <c r="D59">
-        <v>-0.1058026302207164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01177348001124085</v>
+      </c>
+      <c r="E59">
+        <v>-0.01877721939186353</v>
+      </c>
+      <c r="F59">
+        <v>-0.003312099980938174</v>
+      </c>
+      <c r="G59">
+        <v>0.04225810256840704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.129388574726663</v>
+        <v>0.2885508802443578</v>
       </c>
       <c r="C60">
-        <v>0.1507603313216675</v>
+        <v>-0.1081137122330334</v>
       </c>
       <c r="D60">
-        <v>0.1419213619007951</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01125649022249555</v>
+      </c>
+      <c r="E60">
+        <v>0.001871939896495037</v>
+      </c>
+      <c r="F60">
+        <v>0.3372006535879102</v>
+      </c>
+      <c r="G60">
+        <v>-0.1629804619948189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001822038218572166</v>
+        <v>0.03926965733009321</v>
       </c>
       <c r="C61">
-        <v>-0.003522710408638788</v>
+        <v>-0.06624249609414085</v>
       </c>
       <c r="D61">
-        <v>0.0767268062242383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005550630533527452</v>
+      </c>
+      <c r="E61">
+        <v>-0.02377486400358672</v>
+      </c>
+      <c r="F61">
+        <v>0.01410938036193934</v>
+      </c>
+      <c r="G61">
+        <v>0.09649816297461621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006426542203826951</v>
+        <v>0.01573887132501815</v>
       </c>
       <c r="C63">
-        <v>-0.00430353309302951</v>
+        <v>-0.03038037210908871</v>
       </c>
       <c r="D63">
-        <v>0.02314556232653969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008611520369326655</v>
+      </c>
+      <c r="E63">
+        <v>-0.003538501690514567</v>
+      </c>
+      <c r="F63">
+        <v>-0.019421820682069</v>
+      </c>
+      <c r="G63">
+        <v>0.09392408171354938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02135541033405269</v>
+        <v>0.04909033110048684</v>
       </c>
       <c r="C64">
-        <v>0.02065271996407915</v>
+        <v>-0.04705845732755151</v>
       </c>
       <c r="D64">
-        <v>0.06295266720128302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006632738075445518</v>
+      </c>
+      <c r="E64">
+        <v>-0.009746972754678836</v>
+      </c>
+      <c r="F64">
+        <v>0.008120268413652204</v>
+      </c>
+      <c r="G64">
+        <v>0.1038385519334419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02288074192703245</v>
+        <v>0.07541107036367953</v>
       </c>
       <c r="C65">
-        <v>0.001770572465072538</v>
+        <v>-0.05780822510605576</v>
       </c>
       <c r="D65">
-        <v>0.1132959782150433</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01659335863783318</v>
+      </c>
+      <c r="E65">
+        <v>-0.03845032163132419</v>
+      </c>
+      <c r="F65">
+        <v>0.02981621364157258</v>
+      </c>
+      <c r="G65">
+        <v>0.04127288269567785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.00541778266155065</v>
+        <v>0.05133292857030181</v>
       </c>
       <c r="C66">
-        <v>-0.02352129489080676</v>
+        <v>-0.107140010473267</v>
       </c>
       <c r="D66">
-        <v>0.133544664184326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01169411870591459</v>
+      </c>
+      <c r="E66">
+        <v>-0.04030862028591044</v>
+      </c>
+      <c r="F66">
+        <v>0.03503735213458042</v>
+      </c>
+      <c r="G66">
+        <v>0.1042004862090395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.02228827782546121</v>
+        <v>0.05408185951008581</v>
       </c>
       <c r="C67">
-        <v>0.03841121090458478</v>
+        <v>-0.03328243365261349</v>
       </c>
       <c r="D67">
-        <v>0.06042229560381859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005847696933075998</v>
+      </c>
+      <c r="E67">
+        <v>0.001514757826162748</v>
+      </c>
+      <c r="F67">
+        <v>-0.01749689163151586</v>
+      </c>
+      <c r="G67">
+        <v>0.07590399514337347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1692356555801357</v>
+        <v>0.1552356623970022</v>
       </c>
       <c r="C68">
-        <v>0.2082761230164233</v>
+        <v>0.2688367283758594</v>
       </c>
       <c r="D68">
-        <v>-0.1472534890705258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005455330509320824</v>
+      </c>
+      <c r="E68">
+        <v>-0.0120505750506214</v>
+      </c>
+      <c r="F68">
+        <v>-0.03779508521841062</v>
+      </c>
+      <c r="G68">
+        <v>0.03014628960660374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01844575046830556</v>
+        <v>0.08286636211261424</v>
       </c>
       <c r="C69">
-        <v>0.03549952311999433</v>
+        <v>-0.07012045021166785</v>
       </c>
       <c r="D69">
-        <v>0.0790840367317148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00880018008365193</v>
+      </c>
+      <c r="E69">
+        <v>0.02071337236597452</v>
+      </c>
+      <c r="F69">
+        <v>-0.03721255811017188</v>
+      </c>
+      <c r="G69">
+        <v>0.1015428946497654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1357100276581852</v>
+        <v>0.1405789246482094</v>
       </c>
       <c r="C71">
-        <v>0.1777423044709946</v>
+        <v>0.2306076661289868</v>
       </c>
       <c r="D71">
-        <v>-0.1026670743840604</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.00304496779373882</v>
+      </c>
+      <c r="E71">
+        <v>-0.03256501675867585</v>
+      </c>
+      <c r="F71">
+        <v>-0.02419170734519653</v>
+      </c>
+      <c r="G71">
+        <v>0.07077202038226137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.006071699830931178</v>
+        <v>0.08567104407282164</v>
       </c>
       <c r="C72">
-        <v>0.01746736551015668</v>
+        <v>-0.0680403997007145</v>
       </c>
       <c r="D72">
-        <v>0.1076439249235338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008376587310616537</v>
+      </c>
+      <c r="E72">
+        <v>0.007827683837330362</v>
+      </c>
+      <c r="F72">
+        <v>0.03933928798252298</v>
+      </c>
+      <c r="G72">
+        <v>0.0859629571262768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1562981988612213</v>
+        <v>0.3770656383672942</v>
       </c>
       <c r="C73">
-        <v>0.1709172041047347</v>
+        <v>-0.1154232369827624</v>
       </c>
       <c r="D73">
-        <v>0.2673022838775643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02001905477919312</v>
+      </c>
+      <c r="E73">
+        <v>-0.07659585080679586</v>
+      </c>
+      <c r="F73">
+        <v>0.5754930552197398</v>
+      </c>
+      <c r="G73">
+        <v>-0.2943761010897418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.02384316852797825</v>
+        <v>0.1051034284948606</v>
       </c>
       <c r="C74">
-        <v>0.04179316648716862</v>
+        <v>-0.1089800274911621</v>
       </c>
       <c r="D74">
-        <v>0.1728849163523925</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009386588859235026</v>
+      </c>
+      <c r="E74">
+        <v>0.007950988131858025</v>
+      </c>
+      <c r="F74">
+        <v>-0.06940744830265157</v>
+      </c>
+      <c r="G74">
+        <v>0.08361755682160359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.06441641693213024</v>
+        <v>0.2474594351027138</v>
       </c>
       <c r="C75">
-        <v>0.1054258651427607</v>
+        <v>-0.1520764103861794</v>
       </c>
       <c r="D75">
-        <v>0.3048064327489606</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03059625694478158</v>
+      </c>
+      <c r="E75">
+        <v>0.06796107421181388</v>
+      </c>
+      <c r="F75">
+        <v>-0.1676843157895775</v>
+      </c>
+      <c r="G75">
+        <v>-0.02192438311092792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.02852300676284594</v>
+        <v>0.1187182168969871</v>
       </c>
       <c r="C76">
-        <v>0.05779116930955235</v>
+        <v>-0.1099368626087486</v>
       </c>
       <c r="D76">
-        <v>0.2099378607249754</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01777816644850368</v>
+      </c>
+      <c r="E76">
+        <v>0.02579885308854479</v>
+      </c>
+      <c r="F76">
+        <v>-0.1049801883370946</v>
+      </c>
+      <c r="G76">
+        <v>0.06092086638820983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01816619274024831</v>
+        <v>0.06951791414536551</v>
       </c>
       <c r="C77">
-        <v>0.006855624776711403</v>
+        <v>-0.05840221393875827</v>
       </c>
       <c r="D77">
-        <v>0.07446419738703501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0106693768394802</v>
+      </c>
+      <c r="E77">
+        <v>-0.04794373012512839</v>
+      </c>
+      <c r="F77">
+        <v>0.009628602473278867</v>
+      </c>
+      <c r="G77">
+        <v>0.06793842477621929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.008843003031930387</v>
+        <v>0.04350416894990448</v>
       </c>
       <c r="C78">
-        <v>0.005441707652502299</v>
+        <v>-0.04948583407987886</v>
       </c>
       <c r="D78">
-        <v>0.06748037166205961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005862585336196216</v>
+      </c>
+      <c r="E78">
+        <v>-0.02870452667881752</v>
+      </c>
+      <c r="F78">
+        <v>0.03766057690546912</v>
+      </c>
+      <c r="G78">
+        <v>0.1029735295385286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0001338831947460427</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001621015110022052</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>3.130633370871124e-06</v>
+      </c>
+      <c r="E79">
+        <v>-0.0007227345104363209</v>
+      </c>
+      <c r="F79">
+        <v>0.0007771632396043511</v>
+      </c>
+      <c r="G79">
+        <v>-0.001083538118113996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02692117517819859</v>
+        <v>0.04312315857934809</v>
       </c>
       <c r="C80">
-        <v>0.01675515927249388</v>
+        <v>-0.0517611043241533</v>
       </c>
       <c r="D80">
-        <v>0.0851129632627922</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0133108523564627</v>
+      </c>
+      <c r="E80">
+        <v>-0.02507543090838892</v>
+      </c>
+      <c r="F80">
+        <v>0.01361581065117553</v>
+      </c>
+      <c r="G80">
+        <v>0.0533096265286669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.03847638910337624</v>
+        <v>0.1371676461998046</v>
       </c>
       <c r="C81">
-        <v>0.06119402214160196</v>
+        <v>-0.09558326132345443</v>
       </c>
       <c r="D81">
-        <v>0.1698918246617572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01460365920114225</v>
+      </c>
+      <c r="E81">
+        <v>0.03299502632070624</v>
+      </c>
+      <c r="F81">
+        <v>-0.1265408784587594</v>
+      </c>
+      <c r="G81">
+        <v>0.02412928432722667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1333961252360246</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07895656522651209</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.009398442659552943</v>
+      </c>
+      <c r="E82">
+        <v>0.1000729268413418</v>
+      </c>
+      <c r="F82">
+        <v>-0.05053202226072792</v>
+      </c>
+      <c r="G82">
+        <v>0.06346162125978419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01390071770247858</v>
+        <v>0.03647224066555446</v>
       </c>
       <c r="C83">
-        <v>0.01237296950640625</v>
+        <v>-0.02828663777828173</v>
       </c>
       <c r="D83">
-        <v>0.03048903954082741</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005935564508078543</v>
+      </c>
+      <c r="E83">
+        <v>-0.03068468577811444</v>
+      </c>
+      <c r="F83">
+        <v>0.02916665911579814</v>
+      </c>
+      <c r="G83">
+        <v>0.06294251468961817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.06200999711230443</v>
+        <v>0.2123758818540473</v>
       </c>
       <c r="C85">
-        <v>0.08113102414091329</v>
+        <v>-0.1474779875489835</v>
       </c>
       <c r="D85">
-        <v>0.2811145354329341</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01689571322022109</v>
+      </c>
+      <c r="E85">
+        <v>0.1021445198606097</v>
+      </c>
+      <c r="F85">
+        <v>-0.1212965766614063</v>
+      </c>
+      <c r="G85">
+        <v>-0.06183207097918049</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01564578190052943</v>
+        <v>0.01487238618657983</v>
       </c>
       <c r="C86">
-        <v>0.01256677508138693</v>
+        <v>-0.02525209922642386</v>
       </c>
       <c r="D86">
-        <v>0.04583123335219301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01164244161343495</v>
+      </c>
+      <c r="E86">
+        <v>-0.05192036307915317</v>
+      </c>
+      <c r="F86">
+        <v>0.02077522323486837</v>
+      </c>
+      <c r="G86">
+        <v>0.1891395559098546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003512618552353054</v>
+        <v>0.02177306350593011</v>
       </c>
       <c r="C87">
-        <v>-0.009781061233148444</v>
+        <v>-0.02193224055795115</v>
       </c>
       <c r="D87">
-        <v>0.0449431551053577</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01193303074448838</v>
+      </c>
+      <c r="E87">
+        <v>-0.09399957800267691</v>
+      </c>
+      <c r="F87">
+        <v>0.009850630728513424</v>
+      </c>
+      <c r="G87">
+        <v>0.1222784901577208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03959884075696475</v>
+        <v>0.09443348112562588</v>
       </c>
       <c r="C88">
-        <v>0.01523174328169626</v>
+        <v>-0.06843968336902209</v>
       </c>
       <c r="D88">
-        <v>0.05307929974183499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02227398148337422</v>
+      </c>
+      <c r="E88">
+        <v>0.003544182225281473</v>
+      </c>
+      <c r="F88">
+        <v>-0.02034507629252287</v>
+      </c>
+      <c r="G88">
+        <v>0.1023026859578747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2464362439359078</v>
+        <v>0.2320775474964406</v>
       </c>
       <c r="C89">
-        <v>0.3173255471240522</v>
+        <v>0.3689843797869941</v>
       </c>
       <c r="D89">
-        <v>-0.1818533076989877</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004720561546902224</v>
+      </c>
+      <c r="E89">
+        <v>0.01847769097992161</v>
+      </c>
+      <c r="F89">
+        <v>-0.02805917569241854</v>
+      </c>
+      <c r="G89">
+        <v>0.07022985085508616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2014624682876416</v>
+        <v>0.2076146766003668</v>
       </c>
       <c r="C90">
-        <v>0.2650858091582689</v>
+        <v>0.3181637812010986</v>
       </c>
       <c r="D90">
-        <v>-0.16776475750144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004739055267158321</v>
+      </c>
+      <c r="E90">
+        <v>-0.001399761949031655</v>
+      </c>
+      <c r="F90">
+        <v>-0.04719680293938964</v>
+      </c>
+      <c r="G90">
+        <v>0.04525304428556237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.05360762029586257</v>
+        <v>0.1854456987864125</v>
       </c>
       <c r="C91">
-        <v>0.09139619577301206</v>
+        <v>-0.142093333559162</v>
       </c>
       <c r="D91">
-        <v>0.229082875105444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02157156558213644</v>
+      </c>
+      <c r="E91">
+        <v>0.06303625087624294</v>
+      </c>
+      <c r="F91">
+        <v>-0.1426836935014502</v>
+      </c>
+      <c r="G91">
+        <v>0.03436256988020852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1610878019148448</v>
+        <v>0.1986422537978442</v>
       </c>
       <c r="C92">
-        <v>0.2617219444699864</v>
+        <v>0.2572817434213076</v>
       </c>
       <c r="D92">
-        <v>-0.06902736709283702</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03814102283944312</v>
+      </c>
+      <c r="E92">
+        <v>-0.04423484676418478</v>
+      </c>
+      <c r="F92">
+        <v>-0.05713506895676943</v>
+      </c>
+      <c r="G92">
+        <v>0.1120090391023325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2102440398427294</v>
+        <v>0.2304149758739778</v>
       </c>
       <c r="C93">
-        <v>0.2851245749002931</v>
+        <v>0.3142676891810646</v>
       </c>
       <c r="D93">
-        <v>-0.1357691436549247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01135556075317619</v>
+      </c>
+      <c r="E93">
+        <v>-0.005643851716705357</v>
+      </c>
+      <c r="F93">
+        <v>-0.04212562095981049</v>
+      </c>
+      <c r="G93">
+        <v>0.05999140500384581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1019873610015446</v>
+        <v>0.3191090853357695</v>
       </c>
       <c r="C94">
-        <v>0.1234549339110238</v>
+        <v>-0.1794395921370152</v>
       </c>
       <c r="D94">
-        <v>0.3153471090474752</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01829602562047494</v>
+      </c>
+      <c r="E94">
+        <v>0.2154692205686048</v>
+      </c>
+      <c r="F94">
+        <v>-0.4782819283317987</v>
+      </c>
+      <c r="G94">
+        <v>-0.4097476225963214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002870836210434836</v>
+        <v>0.101410840629004</v>
       </c>
       <c r="C95">
-        <v>0.008523315105014712</v>
+        <v>-0.08841833300932971</v>
       </c>
       <c r="D95">
-        <v>0.1179390885867515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009956500151902727</v>
+      </c>
+      <c r="E95">
+        <v>-0.08315982116568336</v>
+      </c>
+      <c r="F95">
+        <v>0.2037994803559395</v>
+      </c>
+      <c r="G95">
+        <v>-0.0007416871860014895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.08565998303655764</v>
+        <v>0.1952734539137059</v>
       </c>
       <c r="C98">
-        <v>0.1370908658028998</v>
+        <v>-0.04449627787500353</v>
       </c>
       <c r="D98">
-        <v>0.1369122430647467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01385945688689102</v>
+      </c>
+      <c r="E98">
+        <v>-0.0694059702909201</v>
+      </c>
+      <c r="F98">
+        <v>0.2381605289228079</v>
+      </c>
+      <c r="G98">
+        <v>-0.02900193140649226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01081165537940754</v>
+        <v>0.009003191475434992</v>
       </c>
       <c r="C101">
-        <v>0.004198737837321788</v>
+        <v>-0.0231447745965933</v>
       </c>
       <c r="D101">
-        <v>0.0192352900011644</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009183836551716571</v>
+      </c>
+      <c r="E101">
+        <v>-0.004377358772012809</v>
+      </c>
+      <c r="F101">
+        <v>-0.0152371040902485</v>
+      </c>
+      <c r="G101">
+        <v>0.09684714163783209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0397898297114367</v>
+        <v>0.1157924230030374</v>
       </c>
       <c r="C102">
-        <v>0.04103769920879106</v>
+        <v>-0.08395186869339215</v>
       </c>
       <c r="D102">
-        <v>0.1329771455911114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0009948851154762913</v>
+      </c>
+      <c r="E102">
+        <v>0.03531525184002291</v>
+      </c>
+      <c r="F102">
+        <v>-0.04097404813399078</v>
+      </c>
+      <c r="G102">
+        <v>0.01057539048982054</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.7955796347846054</v>
+        <v>0.02125267610892612</v>
       </c>
       <c r="C104">
-        <v>-0.5903968099291911</v>
+        <v>0.03076573305546565</v>
       </c>
       <c r="D104">
-        <v>-0.03529708295518766</v>
+        <v>0.9878945128117719</v>
+      </c>
+      <c r="E104">
+        <v>0.04802315511249123</v>
+      </c>
+      <c r="F104">
+        <v>-0.03366815713146545</v>
+      </c>
+      <c r="G104">
+        <v>-0.03932099708070735</v>
       </c>
     </row>
   </sheetData>
